--- a/allt-thyskaland/matlab/table1.xlsx
+++ b/allt-thyskaland/matlab/table1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2568" uniqueCount="2568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2616" uniqueCount="2616">
   <si>
     <t>Row</t>
   </si>
@@ -92,6 +92,150 @@
   </si>
   <si>
     <t>CDU/CSU</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
   </si>
   <si>
     <t>Row</t>
@@ -8137,33 +8281,33 @@
   <sheetData>
     <row r="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>2544</v>
+        <v>2592</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>2561</v>
+        <v>2609</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>2562</v>
+        <v>2610</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>2563</v>
+        <v>2611</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>2564</v>
+        <v>2612</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>2565</v>
+        <v>2613</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>2566</v>
+        <v>2614</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>2567</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="2" x14ac:dyDescent="0.2">
       <c r="A2" s="0" t="s">
-        <v>2545</v>
+        <v>2593</v>
       </c>
       <c r="B2" s="2">
         <v>27.621156199911582</v>
@@ -8189,7 +8333,7 @@
     </row>
     <row r="3" x14ac:dyDescent="0.2">
       <c r="A3" s="0" t="s">
-        <v>2546</v>
+        <v>2594</v>
       </c>
       <c r="B3" s="2">
         <v>28.53361287910791</v>
@@ -8215,7 +8359,7 @@
     </row>
     <row r="4" x14ac:dyDescent="0.2">
       <c r="A4" s="0" t="s">
-        <v>2547</v>
+        <v>2595</v>
       </c>
       <c r="B4" s="2">
         <v>31.21299676230467</v>
@@ -8241,7 +8385,7 @@
     </row>
     <row r="5" x14ac:dyDescent="0.2">
       <c r="A5" s="0" t="s">
-        <v>2548</v>
+        <v>2596</v>
       </c>
       <c r="B5" s="2">
         <v>31.270325747781641</v>
@@ -8267,7 +8411,7 @@
     </row>
     <row r="6" x14ac:dyDescent="0.2">
       <c r="A6" s="0" t="s">
-        <v>2549</v>
+        <v>2597</v>
       </c>
       <c r="B6" s="2">
         <v>28.990210999389404</v>
@@ -8293,7 +8437,7 @@
     </row>
     <row r="7" x14ac:dyDescent="0.2">
       <c r="A7" s="0" t="s">
-        <v>2550</v>
+        <v>2598</v>
       </c>
       <c r="B7" s="2">
         <v>26.640347037971576</v>
@@ -8319,7 +8463,7 @@
     </row>
     <row r="8" x14ac:dyDescent="0.2">
       <c r="A8" s="0" t="s">
-        <v>2551</v>
+        <v>2599</v>
       </c>
       <c r="B8" s="2">
         <v>27.005036768309242</v>
@@ -8345,7 +8489,7 @@
     </row>
     <row r="9" x14ac:dyDescent="0.2">
       <c r="A9" s="0" t="s">
-        <v>2552</v>
+        <v>2600</v>
       </c>
       <c r="B9" s="2">
         <v>19.535587416781819</v>
@@ -8371,7 +8515,7 @@
     </row>
     <row r="10" x14ac:dyDescent="0.2">
       <c r="A10" s="0" t="s">
-        <v>2553</v>
+        <v>2601</v>
       </c>
       <c r="B10" s="2">
         <v>17.747760060036761</v>
@@ -8397,7 +8541,7 @@
     </row>
     <row r="11" x14ac:dyDescent="0.2">
       <c r="A11" s="0" t="s">
-        <v>2554</v>
+        <v>2602</v>
       </c>
       <c r="B11" s="2">
         <v>31.816588627103016</v>
@@ -8423,7 +8567,7 @@
     </row>
     <row r="12" x14ac:dyDescent="0.2">
       <c r="A12" s="0" t="s">
-        <v>2555</v>
+        <v>2603</v>
       </c>
       <c r="B12" s="2">
         <v>21.969761225068776</v>
@@ -8449,7 +8593,7 @@
     </row>
     <row r="13" x14ac:dyDescent="0.2">
       <c r="A13" s="0" t="s">
-        <v>2556</v>
+        <v>2604</v>
       </c>
       <c r="B13" s="2">
         <v>23.383848067450923</v>
@@ -8475,7 +8619,7 @@
     </row>
     <row r="14" x14ac:dyDescent="0.2">
       <c r="A14" s="0" t="s">
-        <v>2557</v>
+        <v>2605</v>
       </c>
       <c r="B14" s="2">
         <v>20.651777405316285</v>
@@ -8501,7 +8645,7 @@
     </row>
     <row r="15" x14ac:dyDescent="0.2">
       <c r="A15" s="0" t="s">
-        <v>2558</v>
+        <v>2606</v>
       </c>
       <c r="B15" s="2">
         <v>14.806675290256917</v>
@@ -8527,7 +8671,7 @@
     </row>
     <row r="16" x14ac:dyDescent="0.2">
       <c r="A16" s="0" t="s">
-        <v>2559</v>
+        <v>2607</v>
       </c>
       <c r="B16" s="2">
         <v>19.592636772135283</v>
@@ -8553,7 +8697,7 @@
     </row>
     <row r="17" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>2560</v>
+        <v>2608</v>
       </c>
       <c r="B17" s="6">
         <v>17.594084960104851</v>

--- a/allt-thyskaland/matlab/table1.xlsx
+++ b/allt-thyskaland/matlab/table1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2616" uniqueCount="2616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5628" uniqueCount="5628">
   <si>
     <t>Row</t>
   </si>
@@ -7631,6 +7631,9042 @@
   </si>
   <si>
     <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>PDS</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>PDS</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>PDS</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>PDS</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>PDS</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>PDS</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>PDS</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>PDS</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>PDS</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>PDS</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>PDS</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>PDS</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Saarland</t>
   </si>
   <si>
     <t>SPD</t>
@@ -8261,7 +17297,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView showGridLines="false" tabSelected="true" zoomScale="160" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
@@ -8277,37 +17313,41 @@
     <col min="4" max="4" width="6.7109375" style="1" customWidth="true"/>
     <col min="5" max="5" width="5.85546875" style="1" customWidth="true"/>
     <col min="6" max="6" width="4.7109375" style="1" customWidth="true"/>
+    <col min="9" max="9" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>2592</v>
+        <v>5604</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>2609</v>
+        <v>5621</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>2610</v>
+        <v>5622</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>2611</v>
+        <v>5623</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>2612</v>
+        <v>5624</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>2613</v>
+        <v>5625</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>2614</v>
+        <v>5626</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>2615</v>
+        <v>5627</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>5003</v>
       </c>
     </row>
     <row r="2" x14ac:dyDescent="0.2">
       <c r="A2" s="0" t="s">
-        <v>2593</v>
+        <v>5605</v>
       </c>
       <c r="B2" s="2">
         <v>27.621156199911582</v>
@@ -8330,10 +17370,13 @@
       <c r="H2" s="2">
         <v>5.2760274159463929</v>
       </c>
+      <c r="I2" s="0">
+        <v>5.2760274159463929</v>
+      </c>
     </row>
     <row r="3" x14ac:dyDescent="0.2">
       <c r="A3" s="0" t="s">
-        <v>2594</v>
+        <v>5606</v>
       </c>
       <c r="B3" s="2">
         <v>28.53361287910791</v>
@@ -8356,10 +17399,13 @@
       <c r="H3" s="2">
         <v>5.4696083493429439</v>
       </c>
+      <c r="I3" s="0">
+        <v>5.4696083493429439</v>
+      </c>
     </row>
     <row r="4" x14ac:dyDescent="0.2">
       <c r="A4" s="0" t="s">
-        <v>2595</v>
+        <v>5607</v>
       </c>
       <c r="B4" s="2">
         <v>31.21299676230467</v>
@@ -8382,10 +17428,13 @@
       <c r="H4" s="2">
         <v>4.3671935273294915</v>
       </c>
+      <c r="I4" s="0">
+        <v>4.3671935273294915</v>
+      </c>
     </row>
     <row r="5" x14ac:dyDescent="0.2">
       <c r="A5" s="0" t="s">
-        <v>2596</v>
+        <v>5608</v>
       </c>
       <c r="B5" s="2">
         <v>31.270325747781641</v>
@@ -8408,10 +17457,13 @@
       <c r="H5" s="2">
         <v>5.5345600679413494</v>
       </c>
+      <c r="I5" s="0">
+        <v>5.5345600679413494</v>
+      </c>
     </row>
     <row r="6" x14ac:dyDescent="0.2">
       <c r="A6" s="0" t="s">
-        <v>2597</v>
+        <v>5609</v>
       </c>
       <c r="B6" s="2">
         <v>28.990210999389404</v>
@@ -8434,10 +17486,13 @@
       <c r="H6" s="2">
         <v>5.1173467989017007</v>
       </c>
+      <c r="I6" s="0">
+        <v>5.1173467989017007</v>
+      </c>
     </row>
     <row r="7" x14ac:dyDescent="0.2">
       <c r="A7" s="0" t="s">
-        <v>2598</v>
+        <v>5610</v>
       </c>
       <c r="B7" s="2">
         <v>26.640347037971576</v>
@@ -8460,10 +17515,13 @@
       <c r="H7" s="2">
         <v>5.7353448408206056</v>
       </c>
+      <c r="I7" s="0">
+        <v>5.7353448408206056</v>
+      </c>
     </row>
     <row r="8" x14ac:dyDescent="0.2">
       <c r="A8" s="0" t="s">
-        <v>2599</v>
+        <v>5611</v>
       </c>
       <c r="B8" s="2">
         <v>27.005036768309242</v>
@@ -8486,10 +17544,13 @@
       <c r="H8" s="2">
         <v>6.3130148910325579</v>
       </c>
+      <c r="I8" s="0">
+        <v>6.3130148910325579</v>
+      </c>
     </row>
     <row r="9" x14ac:dyDescent="0.2">
       <c r="A9" s="0" t="s">
-        <v>2600</v>
+        <v>5612</v>
       </c>
       <c r="B9" s="2">
         <v>19.535587416781819</v>
@@ -8512,10 +17573,13 @@
       <c r="H9" s="2">
         <v>6.3701318669462266</v>
       </c>
+      <c r="I9" s="0">
+        <v>6.3701318669462266</v>
+      </c>
     </row>
     <row r="10" x14ac:dyDescent="0.2">
       <c r="A10" s="0" t="s">
-        <v>2601</v>
+        <v>5613</v>
       </c>
       <c r="B10" s="2">
         <v>17.747760060036761</v>
@@ -8538,10 +17602,13 @@
       <c r="H10" s="2">
         <v>10.170311619079992</v>
       </c>
+      <c r="I10" s="0">
+        <v>10.170311619079992</v>
+      </c>
     </row>
     <row r="11" x14ac:dyDescent="0.2">
       <c r="A11" s="0" t="s">
-        <v>2602</v>
+        <v>5614</v>
       </c>
       <c r="B11" s="2">
         <v>31.816588627103016</v>
@@ -8564,10 +17631,13 @@
       <c r="H11" s="2">
         <v>6.9677220120989274</v>
       </c>
+      <c r="I11" s="0">
+        <v>6.9677220120989274</v>
+      </c>
     </row>
     <row r="12" x14ac:dyDescent="0.2">
       <c r="A12" s="0" t="s">
-        <v>2603</v>
+        <v>5615</v>
       </c>
       <c r="B12" s="2">
         <v>21.969761225068776</v>
@@ -8590,135 +17660,153 @@
       <c r="H12" s="2">
         <v>8.0343578990296205</v>
       </c>
+      <c r="I12" s="0">
+        <v>8.0343578990296205</v>
+      </c>
     </row>
     <row r="13" x14ac:dyDescent="0.2">
       <c r="A13" s="0" t="s">
-        <v>2604</v>
+        <v>5616</v>
       </c>
       <c r="B13" s="2">
-        <v>23.383848067450923</v>
+        <v>20.651777405316285</v>
       </c>
       <c r="C13" s="2">
-        <v>6.3112972710609521</v>
+        <v>5.5501932718826632</v>
       </c>
       <c r="D13" s="2">
-        <v>6.2369620616548715</v>
+        <v>5.4792294398892372</v>
       </c>
       <c r="E13" s="2">
-        <v>16.019680993553372</v>
+        <v>16.81213957791222</v>
       </c>
       <c r="F13" s="2">
-        <v>14.772131903432195</v>
+        <v>14.072074932282893</v>
       </c>
       <c r="G13" s="2">
-        <v>25.578913635342186</v>
+        <v>31.02716058610692</v>
       </c>
       <c r="H13" s="2">
-        <v>7.6971660675055062</v>
+        <v>6.4074247866097807</v>
+      </c>
+      <c r="I13" s="0">
+        <v>6.4074247866097807</v>
       </c>
     </row>
     <row r="14" x14ac:dyDescent="0.2">
       <c r="A14" s="0" t="s">
-        <v>2605</v>
+        <v>5617</v>
       </c>
       <c r="B14" s="2">
-        <v>20.651777405316285</v>
+        <v>23.383848067450923</v>
       </c>
       <c r="C14" s="2">
-        <v>5.5501932718826632</v>
+        <v>6.3112972710609521</v>
       </c>
       <c r="D14" s="2">
-        <v>5.4792294398892372</v>
+        <v>6.2369620616548715</v>
       </c>
       <c r="E14" s="2">
-        <v>16.81213957791222</v>
+        <v>16.019680993553372</v>
       </c>
       <c r="F14" s="2">
-        <v>14.072074932282893</v>
+        <v>14.772131903432195</v>
       </c>
       <c r="G14" s="2">
-        <v>31.02716058610692</v>
+        <v>25.578913635342186</v>
       </c>
       <c r="H14" s="2">
-        <v>6.4074247866097807</v>
+        <v>7.6971660675055062</v>
+      </c>
+      <c r="I14" s="0">
+        <v>7.6971660675055062</v>
       </c>
     </row>
     <row r="15" x14ac:dyDescent="0.2">
       <c r="A15" s="0" t="s">
-        <v>2606</v>
+        <v>5618</v>
       </c>
       <c r="B15" s="2">
-        <v>14.806675290256917</v>
+        <v>19.592636772135283</v>
       </c>
       <c r="C15" s="2">
-        <v>7.4263476210399801</v>
+        <v>6.6239331287915419</v>
       </c>
       <c r="D15" s="2">
-        <v>6.0287837848537249</v>
+        <v>4.7457322216296935</v>
       </c>
       <c r="E15" s="2">
-        <v>15.146225692717991</v>
+        <v>17.094864707623959</v>
       </c>
       <c r="F15" s="2">
-        <v>19.477260183573197</v>
+        <v>14.478788754638897</v>
       </c>
       <c r="G15" s="2">
-        <v>28.886480667515485</v>
+        <v>30.837929475667039</v>
       </c>
       <c r="H15" s="2">
-        <v>8.228226760042709</v>
+        <v>6.6261149395135801</v>
+      </c>
+      <c r="I15" s="0">
+        <v>6.6261149395135801</v>
       </c>
     </row>
     <row r="16" x14ac:dyDescent="0.2">
       <c r="A16" s="0" t="s">
-        <v>2607</v>
+        <v>5619</v>
       </c>
       <c r="B16" s="2">
-        <v>19.592636772135283</v>
+        <v>17.594084960104851</v>
       </c>
       <c r="C16" s="2">
-        <v>6.6239331287915419</v>
+        <v>6.4845447710674504</v>
       </c>
       <c r="D16" s="2">
-        <v>4.7457322216296935</v>
+        <v>5.2042085816354682</v>
       </c>
       <c r="E16" s="2">
-        <v>17.094864707623959</v>
+        <v>17.242966998320266</v>
       </c>
       <c r="F16" s="2">
-        <v>14.478788754638897</v>
+        <v>17.620604463738633</v>
       </c>
       <c r="G16" s="2">
-        <v>30.837929475667039</v>
+        <v>28.126689355188592</v>
       </c>
       <c r="H16" s="2">
-        <v>6.6261149395135801</v>
+        <v>7.7269008699447381</v>
+      </c>
+      <c r="I16" s="0">
+        <v>7.7269008699447381</v>
       </c>
     </row>
     <row r="17" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>2608</v>
+        <v>5620</v>
       </c>
       <c r="B17" s="6">
-        <v>17.594084960104851</v>
+        <v>14.806675290256917</v>
       </c>
       <c r="C17" s="6">
-        <v>6.4845447710674504</v>
+        <v>7.4263476210399801</v>
       </c>
       <c r="D17" s="6">
-        <v>5.2042085816354682</v>
+        <v>6.0287837848537249</v>
       </c>
       <c r="E17" s="6">
-        <v>17.242966998320266</v>
+        <v>15.146225692717991</v>
       </c>
       <c r="F17" s="6">
-        <v>17.620604463738633</v>
+        <v>19.477260183573197</v>
       </c>
       <c r="G17" s="6">
-        <v>28.126689355188592</v>
+        <v>28.886480667515485</v>
       </c>
       <c r="H17" s="6">
-        <v>7.7269008699447381</v>
+        <v>8.228226760042709</v>
+      </c>
+      <c r="I17" s="0">
+        <v>8.228226760042709</v>
       </c>
     </row>
   </sheetData>

--- a/allt-thyskaland/matlab/table1.xlsx
+++ b/allt-thyskaland/matlab/table1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5628" uniqueCount="5628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5700" uniqueCount="5700">
   <si>
     <t>Row</t>
   </si>
@@ -16667,6 +16667,222 @@
   </si>
   <si>
     <t>Saarland</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
   </si>
   <si>
     <t>SPD</t>
@@ -17318,28 +17534,28 @@
   <sheetData>
     <row r="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>5604</v>
+        <v>5676</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>5621</v>
+        <v>5693</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>5622</v>
+        <v>5694</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>5623</v>
+        <v>5695</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>5624</v>
+        <v>5696</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>5625</v>
+        <v>5697</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>5626</v>
+        <v>5698</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>5627</v>
+        <v>5699</v>
       </c>
       <c r="I1" s="0" t="s">
         <v>5003</v>
@@ -17347,7 +17563,7 @@
     </row>
     <row r="2" x14ac:dyDescent="0.2">
       <c r="A2" s="0" t="s">
-        <v>5605</v>
+        <v>5677</v>
       </c>
       <c r="B2" s="2">
         <v>27.621156199911582</v>
@@ -17376,7 +17592,7 @@
     </row>
     <row r="3" x14ac:dyDescent="0.2">
       <c r="A3" s="0" t="s">
-        <v>5606</v>
+        <v>5678</v>
       </c>
       <c r="B3" s="2">
         <v>28.53361287910791</v>
@@ -17405,7 +17621,7 @@
     </row>
     <row r="4" x14ac:dyDescent="0.2">
       <c r="A4" s="0" t="s">
-        <v>5607</v>
+        <v>5679</v>
       </c>
       <c r="B4" s="2">
         <v>31.21299676230467</v>
@@ -17434,7 +17650,7 @@
     </row>
     <row r="5" x14ac:dyDescent="0.2">
       <c r="A5" s="0" t="s">
-        <v>5608</v>
+        <v>5680</v>
       </c>
       <c r="B5" s="2">
         <v>31.270325747781641</v>
@@ -17463,7 +17679,7 @@
     </row>
     <row r="6" x14ac:dyDescent="0.2">
       <c r="A6" s="0" t="s">
-        <v>5609</v>
+        <v>5681</v>
       </c>
       <c r="B6" s="2">
         <v>28.990210999389404</v>
@@ -17492,7 +17708,7 @@
     </row>
     <row r="7" x14ac:dyDescent="0.2">
       <c r="A7" s="0" t="s">
-        <v>5610</v>
+        <v>5682</v>
       </c>
       <c r="B7" s="2">
         <v>26.640347037971576</v>
@@ -17521,7 +17737,7 @@
     </row>
     <row r="8" x14ac:dyDescent="0.2">
       <c r="A8" s="0" t="s">
-        <v>5611</v>
+        <v>5683</v>
       </c>
       <c r="B8" s="2">
         <v>27.005036768309242</v>
@@ -17550,7 +17766,7 @@
     </row>
     <row r="9" x14ac:dyDescent="0.2">
       <c r="A9" s="0" t="s">
-        <v>5612</v>
+        <v>5684</v>
       </c>
       <c r="B9" s="2">
         <v>19.535587416781819</v>
@@ -17579,7 +17795,7 @@
     </row>
     <row r="10" x14ac:dyDescent="0.2">
       <c r="A10" s="0" t="s">
-        <v>5613</v>
+        <v>5685</v>
       </c>
       <c r="B10" s="2">
         <v>17.747760060036761</v>
@@ -17608,7 +17824,7 @@
     </row>
     <row r="11" x14ac:dyDescent="0.2">
       <c r="A11" s="0" t="s">
-        <v>5614</v>
+        <v>5686</v>
       </c>
       <c r="B11" s="2">
         <v>31.816588627103016</v>
@@ -17637,7 +17853,7 @@
     </row>
     <row r="12" x14ac:dyDescent="0.2">
       <c r="A12" s="0" t="s">
-        <v>5615</v>
+        <v>5687</v>
       </c>
       <c r="B12" s="2">
         <v>21.969761225068776</v>
@@ -17666,7 +17882,7 @@
     </row>
     <row r="13" x14ac:dyDescent="0.2">
       <c r="A13" s="0" t="s">
-        <v>5616</v>
+        <v>5688</v>
       </c>
       <c r="B13" s="2">
         <v>20.651777405316285</v>
@@ -17695,7 +17911,7 @@
     </row>
     <row r="14" x14ac:dyDescent="0.2">
       <c r="A14" s="0" t="s">
-        <v>5617</v>
+        <v>5689</v>
       </c>
       <c r="B14" s="2">
         <v>23.383848067450923</v>
@@ -17724,7 +17940,7 @@
     </row>
     <row r="15" x14ac:dyDescent="0.2">
       <c r="A15" s="0" t="s">
-        <v>5618</v>
+        <v>5690</v>
       </c>
       <c r="B15" s="2">
         <v>19.592636772135283</v>
@@ -17753,7 +17969,7 @@
     </row>
     <row r="16" x14ac:dyDescent="0.2">
       <c r="A16" s="0" t="s">
-        <v>5619</v>
+        <v>5691</v>
       </c>
       <c r="B16" s="2">
         <v>17.594084960104851</v>
@@ -17782,7 +17998,7 @@
     </row>
     <row r="17" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>5620</v>
+        <v>5692</v>
       </c>
       <c r="B17" s="6">
         <v>14.806675290256917</v>

--- a/allt-thyskaland/matlab/table1.xlsx
+++ b/allt-thyskaland/matlab/table1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5700" uniqueCount="5700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5820" uniqueCount="5820">
   <si>
     <t>Row</t>
   </si>
@@ -16667,6 +16667,366 @@
   </si>
   <si>
     <t>Saarland</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
   </si>
   <si>
     <t>SPD</t>
@@ -17534,28 +17894,28 @@
   <sheetData>
     <row r="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>5676</v>
+        <v>5796</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>5693</v>
+        <v>5813</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>5694</v>
+        <v>5814</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>5695</v>
+        <v>5815</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>5696</v>
+        <v>5816</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>5697</v>
+        <v>5817</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>5698</v>
+        <v>5818</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>5699</v>
+        <v>5819</v>
       </c>
       <c r="I1" s="0" t="s">
         <v>5003</v>
@@ -17563,7 +17923,7 @@
     </row>
     <row r="2" x14ac:dyDescent="0.2">
       <c r="A2" s="0" t="s">
-        <v>5677</v>
+        <v>5797</v>
       </c>
       <c r="B2" s="2">
         <v>27.621156199911582</v>
@@ -17592,7 +17952,7 @@
     </row>
     <row r="3" x14ac:dyDescent="0.2">
       <c r="A3" s="0" t="s">
-        <v>5678</v>
+        <v>5798</v>
       </c>
       <c r="B3" s="2">
         <v>28.53361287910791</v>
@@ -17621,7 +17981,7 @@
     </row>
     <row r="4" x14ac:dyDescent="0.2">
       <c r="A4" s="0" t="s">
-        <v>5679</v>
+        <v>5799</v>
       </c>
       <c r="B4" s="2">
         <v>31.21299676230467</v>
@@ -17650,7 +18010,7 @@
     </row>
     <row r="5" x14ac:dyDescent="0.2">
       <c r="A5" s="0" t="s">
-        <v>5680</v>
+        <v>5800</v>
       </c>
       <c r="B5" s="2">
         <v>31.270325747781641</v>
@@ -17679,7 +18039,7 @@
     </row>
     <row r="6" x14ac:dyDescent="0.2">
       <c r="A6" s="0" t="s">
-        <v>5681</v>
+        <v>5801</v>
       </c>
       <c r="B6" s="2">
         <v>28.990210999389404</v>
@@ -17708,7 +18068,7 @@
     </row>
     <row r="7" x14ac:dyDescent="0.2">
       <c r="A7" s="0" t="s">
-        <v>5682</v>
+        <v>5802</v>
       </c>
       <c r="B7" s="2">
         <v>26.640347037971576</v>
@@ -17737,7 +18097,7 @@
     </row>
     <row r="8" x14ac:dyDescent="0.2">
       <c r="A8" s="0" t="s">
-        <v>5683</v>
+        <v>5803</v>
       </c>
       <c r="B8" s="2">
         <v>27.005036768309242</v>
@@ -17766,7 +18126,7 @@
     </row>
     <row r="9" x14ac:dyDescent="0.2">
       <c r="A9" s="0" t="s">
-        <v>5684</v>
+        <v>5804</v>
       </c>
       <c r="B9" s="2">
         <v>19.535587416781819</v>
@@ -17795,7 +18155,7 @@
     </row>
     <row r="10" x14ac:dyDescent="0.2">
       <c r="A10" s="0" t="s">
-        <v>5685</v>
+        <v>5805</v>
       </c>
       <c r="B10" s="2">
         <v>17.747760060036761</v>
@@ -17824,7 +18184,7 @@
     </row>
     <row r="11" x14ac:dyDescent="0.2">
       <c r="A11" s="0" t="s">
-        <v>5686</v>
+        <v>5806</v>
       </c>
       <c r="B11" s="2">
         <v>31.816588627103016</v>
@@ -17853,7 +18213,7 @@
     </row>
     <row r="12" x14ac:dyDescent="0.2">
       <c r="A12" s="0" t="s">
-        <v>5687</v>
+        <v>5807</v>
       </c>
       <c r="B12" s="2">
         <v>21.969761225068776</v>
@@ -17882,7 +18242,7 @@
     </row>
     <row r="13" x14ac:dyDescent="0.2">
       <c r="A13" s="0" t="s">
-        <v>5688</v>
+        <v>5808</v>
       </c>
       <c r="B13" s="2">
         <v>20.651777405316285</v>
@@ -17911,7 +18271,7 @@
     </row>
     <row r="14" x14ac:dyDescent="0.2">
       <c r="A14" s="0" t="s">
-        <v>5689</v>
+        <v>5809</v>
       </c>
       <c r="B14" s="2">
         <v>23.383848067450923</v>
@@ -17940,7 +18300,7 @@
     </row>
     <row r="15" x14ac:dyDescent="0.2">
       <c r="A15" s="0" t="s">
-        <v>5690</v>
+        <v>5810</v>
       </c>
       <c r="B15" s="2">
         <v>19.592636772135283</v>
@@ -17969,7 +18329,7 @@
     </row>
     <row r="16" x14ac:dyDescent="0.2">
       <c r="A16" s="0" t="s">
-        <v>5691</v>
+        <v>5811</v>
       </c>
       <c r="B16" s="2">
         <v>17.594084960104851</v>
@@ -17998,7 +18358,7 @@
     </row>
     <row r="17" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>5692</v>
+        <v>5812</v>
       </c>
       <c r="B17" s="6">
         <v>14.806675290256917</v>

--- a/allt-thyskaland/matlab/table1.xlsx
+++ b/allt-thyskaland/matlab/table1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5820" uniqueCount="5820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6444" uniqueCount="6444">
   <si>
     <t>Row</t>
   </si>
@@ -16667,6 +16667,1878 @@
   </si>
   <si>
     <t>Saarland</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>Grüne</t>
+  </si>
+  <si>
+    <t>Linke</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
   </si>
   <si>
     <t>SPD</t>
@@ -17894,28 +19766,28 @@
   <sheetData>
     <row r="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>5796</v>
+        <v>6420</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>5813</v>
+        <v>6437</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>5814</v>
+        <v>6438</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>5815</v>
+        <v>6439</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>5816</v>
+        <v>6440</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>5817</v>
+        <v>6441</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>5818</v>
+        <v>6442</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>5819</v>
+        <v>6443</v>
       </c>
       <c r="I1" s="0" t="s">
         <v>5003</v>
@@ -17923,7 +19795,7 @@
     </row>
     <row r="2" x14ac:dyDescent="0.2">
       <c r="A2" s="0" t="s">
-        <v>5797</v>
+        <v>6421</v>
       </c>
       <c r="B2" s="2">
         <v>27.621156199911582</v>
@@ -17952,7 +19824,7 @@
     </row>
     <row r="3" x14ac:dyDescent="0.2">
       <c r="A3" s="0" t="s">
-        <v>5798</v>
+        <v>6422</v>
       </c>
       <c r="B3" s="2">
         <v>28.53361287910791</v>
@@ -17981,7 +19853,7 @@
     </row>
     <row r="4" x14ac:dyDescent="0.2">
       <c r="A4" s="0" t="s">
-        <v>5799</v>
+        <v>6423</v>
       </c>
       <c r="B4" s="2">
         <v>31.21299676230467</v>
@@ -18010,7 +19882,7 @@
     </row>
     <row r="5" x14ac:dyDescent="0.2">
       <c r="A5" s="0" t="s">
-        <v>5800</v>
+        <v>6424</v>
       </c>
       <c r="B5" s="2">
         <v>31.270325747781641</v>
@@ -18039,7 +19911,7 @@
     </row>
     <row r="6" x14ac:dyDescent="0.2">
       <c r="A6" s="0" t="s">
-        <v>5801</v>
+        <v>6425</v>
       </c>
       <c r="B6" s="2">
         <v>28.990210999389404</v>
@@ -18068,7 +19940,7 @@
     </row>
     <row r="7" x14ac:dyDescent="0.2">
       <c r="A7" s="0" t="s">
-        <v>5802</v>
+        <v>6426</v>
       </c>
       <c r="B7" s="2">
         <v>26.640347037971576</v>
@@ -18097,7 +19969,7 @@
     </row>
     <row r="8" x14ac:dyDescent="0.2">
       <c r="A8" s="0" t="s">
-        <v>5803</v>
+        <v>6427</v>
       </c>
       <c r="B8" s="2">
         <v>27.005036768309242</v>
@@ -18126,7 +19998,7 @@
     </row>
     <row r="9" x14ac:dyDescent="0.2">
       <c r="A9" s="0" t="s">
-        <v>5804</v>
+        <v>6428</v>
       </c>
       <c r="B9" s="2">
         <v>19.535587416781819</v>
@@ -18155,7 +20027,7 @@
     </row>
     <row r="10" x14ac:dyDescent="0.2">
       <c r="A10" s="0" t="s">
-        <v>5805</v>
+        <v>6429</v>
       </c>
       <c r="B10" s="2">
         <v>17.747760060036761</v>
@@ -18184,7 +20056,7 @@
     </row>
     <row r="11" x14ac:dyDescent="0.2">
       <c r="A11" s="0" t="s">
-        <v>5806</v>
+        <v>6430</v>
       </c>
       <c r="B11" s="2">
         <v>31.816588627103016</v>
@@ -18213,7 +20085,7 @@
     </row>
     <row r="12" x14ac:dyDescent="0.2">
       <c r="A12" s="0" t="s">
-        <v>5807</v>
+        <v>6431</v>
       </c>
       <c r="B12" s="2">
         <v>21.969761225068776</v>
@@ -18242,7 +20114,7 @@
     </row>
     <row r="13" x14ac:dyDescent="0.2">
       <c r="A13" s="0" t="s">
-        <v>5808</v>
+        <v>6432</v>
       </c>
       <c r="B13" s="2">
         <v>20.651777405316285</v>
@@ -18271,7 +20143,7 @@
     </row>
     <row r="14" x14ac:dyDescent="0.2">
       <c r="A14" s="0" t="s">
-        <v>5809</v>
+        <v>6433</v>
       </c>
       <c r="B14" s="2">
         <v>23.383848067450923</v>
@@ -18300,7 +20172,7 @@
     </row>
     <row r="15" x14ac:dyDescent="0.2">
       <c r="A15" s="0" t="s">
-        <v>5810</v>
+        <v>6434</v>
       </c>
       <c r="B15" s="2">
         <v>19.592636772135283</v>
@@ -18329,7 +20201,7 @@
     </row>
     <row r="16" x14ac:dyDescent="0.2">
       <c r="A16" s="0" t="s">
-        <v>5811</v>
+        <v>6435</v>
       </c>
       <c r="B16" s="2">
         <v>17.594084960104851</v>
@@ -18358,7 +20230,7 @@
     </row>
     <row r="17" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>5812</v>
+        <v>6436</v>
       </c>
       <c r="B17" s="6">
         <v>14.806675290256917</v>
